--- a/data/trans_orig/Predimed-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Predimed-Provincia-trans_orig.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>7,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,23</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>7,22</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,08; 7,4</t>
+          <t>7,05; 7,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,1; 7,35</t>
+          <t>7,08; 7,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,33</t>
+          <t>7,12; 7,32</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>5,63</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,27; 5,74</t>
+          <t>5,27; 5,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,58; 5,92</t>
+          <t>5,58; 5,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,48; 5,78</t>
+          <t>5,47; 5,78</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,45</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>7,53</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,68</t>
+          <t>7,21; 7,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,46; 7,79</t>
+          <t>7,45; 7,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,42; 7,69</t>
+          <t>7,41; 7,68</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>7,63</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,73</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,69</t>
+          <t>7,62</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,26; 8,03</t>
+          <t>7,23; 8,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,41; 8,0</t>
+          <t>6,93; 8,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,46; 7,92</t>
+          <t>7,17; 7,99</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,89</t>
+          <t>6,9</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,19</t>
+          <t>7,2</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,57; 7,19</t>
+          <t>6,59; 7,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,18; 7,68</t>
+          <t>7,2; 7,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,01; 7,39</t>
+          <t>7,02; 7,39</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,68; 7,03</t>
+          <t>6,67; 7,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,55; 6,79</t>
+          <t>6,56; 6,79</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,33</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,39</t>
+          <t>7,46</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,36</t>
+          <t>7,38</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,09; 7,53</t>
+          <t>6,94; 7,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,22; 7,66</t>
+          <t>7,23; 7,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,54</t>
+          <t>7,21; 7,63</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>4,94</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,54; 5,27</t>
+          <t>4,54; 6,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,4; 4,75</t>
+          <t>4,4; 4,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,52; 4,92</t>
+          <t>4,54; 5,75</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,41</t>
+          <t>6,51</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,25; 6,44</t>
+          <t>6,33; 6,57</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,38; 6,65</t>
+          <t>6,45; 6,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,35; 6,5</t>
+          <t>6,42; 6,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Predimed-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Predimed-Provincia-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,05; 7,38</t>
+          <t>7,06; 7,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -589,14 +589,14 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,12; 7,32</t>
+          <t>7,11; 7,33</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,12 +629,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,27; 5,76</t>
+          <t>5,25; 5,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,58; 5,91</t>
+          <t>5,56; 5,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,21; 7,66</t>
+          <t>7,22; 7,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,45; 7,79</t>
+          <t>7,46; 7,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,41; 7,68</t>
+          <t>7,4; 7,67</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,23; 8,0</t>
+          <t>7,24; 8,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,93; 8,18</t>
+          <t>6,84; 8,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,17; 7,99</t>
+          <t>7,08; 7,99</t>
         </is>
       </c>
     </row>
@@ -779,12 +779,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,59; 7,2</t>
+          <t>6,57; 7,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,67</t>
+          <t>7,21; 7,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,67; 7,02</t>
+          <t>6,69; 7,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,34; 6,62</t>
+          <t>6,35; 6,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,56; 6,79</t>
+          <t>6,56; 6,78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,48</t>
+          <t>6,97; 7,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,79</t>
+          <t>7,2; 7,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,21; 7,63</t>
+          <t>7,19; 7,61</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,54; 6,3</t>
+          <t>4,55; 6,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,54; 5,75</t>
+          <t>4,54; 5,76</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,33; 6,57</t>
+          <t>6,34; 6,57</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,45; 6,9</t>
+          <t>6,45; 6,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">

--- a/data/trans_orig/Predimed-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Predimed-Provincia-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Escala adherencia a la dieta mediterránea a través del Predimed</t>
+          <t>Puntuación media de la escala de adherencia a la dieta mediterránea (Predimed)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
